--- a/Research/Surging Braves - Post ASG 2021/Data.xlsx
+++ b/Research/Surging Braves - Post ASG 2021/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Max\Website\RWTW\Research\Surging Braves - Post ASG 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CB6497-09D5-4753-95D7-CD9BCC5CB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B54FF52-2605-4096-ADC1-D6D83CDF9009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22930" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{BC61967F-7655-47C2-A538-74FB7C4E3DBA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BC61967F-7655-47C2-A538-74FB7C4E3DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,12 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -499,6 +493,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,13 +1143,13 @@
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1158,13 +1158,13 @@
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1242,13 +1242,13 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
@@ -1287,13 +1287,13 @@
       <c r="C24" s="3"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" t="s">
         <v>70</v>
       </c>
@@ -1388,26 +1388,26 @@
   <dimension ref="C3:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="8"/>
+    <col min="1" max="2" width="8.7265625" style="6"/>
     <col min="3" max="3" width="8.7265625" style="5"/>
-    <col min="4" max="4" width="19.54296875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="53.90625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="8"/>
+    <col min="4" max="4" width="19.54296875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="53.90625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="58" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       <c r="C5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       <c r="C7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       <c r="C9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       <c r="C11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>92</v>
       </c>
     </row>
